--- a/Jogos_do_Dia/2023-05-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI62"/>
+  <dimension ref="A1:AI64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.41</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.02</v>
       </c>
       <c r="I2" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="J2" t="n">
         <v>1.06</v>
@@ -666,7 +666,7 @@
         <v>2.15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="J3" t="n">
         <v>1.07</v>
@@ -778,10 +778,10 @@
         <v>3.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O3" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="P3" t="n">
         <v>1.44</v>
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="n">
         <v>1.04</v>
@@ -893,10 +893,10 @@
         <v>3.9</v>
       </c>
       <c r="N4" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="O4" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="P4" t="n">
         <v>1.35</v>
@@ -962,7 +962,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ukraine Ukrainian Premier League</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -974,110 +974,110 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lviv</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>AaB</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q5" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF5" t="n">
         <v>1.38</v>
       </c>
-      <c r="M5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="AG5" t="n">
         <v>1.67</v>
       </c>
-      <c r="T5" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>2.14</v>
-      </c>
       <c r="AH5" t="n">
-        <v>2.84</v>
+        <v>2.1</v>
       </c>
       <c r="AI5" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ukraine Ukrainian Premier League</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1089,104 +1089,104 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Metal Kharkiv</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Minai</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.63</v>
+        <v>2.15</v>
       </c>
       <c r="J6" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>8.5</v>
+        <v>14.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="N6" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="O6" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="P6" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.48</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="V6" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="W6" t="n">
-        <v>0.85</v>
+        <v>1.4</v>
       </c>
       <c r="X6" t="n">
-        <v>1.14</v>
+        <v>1.87</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.06</v>
+        <v>1.62</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.99</v>
+        <v>1.53</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.05</v>
+        <v>3.15</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.14</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="7">
@@ -1208,100 +1208,100 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Metalist 1925 Kharkiv</t>
+          <t>Dynamo Kyiv</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Hirnyk</t>
+          <t>Veres Rivne</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.88</v>
+        <v>1.33</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>8.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="O7" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="P7" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1.23</v>
+        <v>1.57</v>
       </c>
       <c r="X7" t="n">
-        <v>0.92</v>
+        <v>1.29</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.83</v>
+        <v>1.54</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.97</v>
+        <v>2.74</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1323,106 +1323,106 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dynamo Kyiv</t>
+          <t>Metal Kharkiv</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Veres Rivne</t>
+          <t>Minai</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.36</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
-        <v>5.05</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>8.300000000000001</v>
+        <v>2.63</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="N8" t="n">
-        <v>1.6</v>
+        <v>2.17</v>
       </c>
       <c r="O8" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W8" t="n">
-        <v>1.57</v>
+        <v>0.85</v>
       </c>
       <c r="X8" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.54</v>
+        <v>1.06</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.2</v>
+        <v>0.99</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.74</v>
+        <v>2.05</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Ukraine Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1434,110 +1434,110 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Metalist 1925 Kharkiv</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Hirnyk</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J9" t="n">
         <v>1.02</v>
       </c>
       <c r="K9" t="n">
-        <v>14.5</v>
+        <v>8.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="N9" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O9" t="n">
-        <v>2.24</v>
+        <v>1.53</v>
       </c>
       <c r="P9" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.25</v>
+        <v>2.87</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="S9" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="U9" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="V9" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="W9" t="n">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="X9" t="n">
-        <v>1.87</v>
+        <v>0.92</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.62</v>
+        <v>0.83</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.53</v>
+        <v>1.14</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.15</v>
+        <v>1.97</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.75</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Ukraine Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1549,104 +1549,104 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Lviv</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AaB</t>
+          <t>Inhulets</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.79</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>2.38</v>
+        <v>1.43</v>
       </c>
       <c r="J10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>12.5</v>
+        <v>7.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="N10" t="n">
-        <v>1.77</v>
+        <v>2.33</v>
       </c>
       <c r="O10" t="n">
-        <v>2.04</v>
+        <v>1.57</v>
       </c>
       <c r="P10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AE10" t="n">
         <v>1.36</v>
       </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1.18</v>
-      </c>
       <c r="AF10" t="n">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.67</v>
+        <v>2.14</v>
       </c>
       <c r="AH10" t="n">
-        <v>2.1</v>
+        <v>2.84</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1668,100 +1668,100 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Vorskla</t>
+          <t>Chornomorets</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Rukh Vynnyky</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K11" t="n">
-        <v>9.25</v>
+        <v>6.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="N11" t="n">
         <v>2.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P11" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="R11" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="S11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T11" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="U11" t="n">
         <v>1.28</v>
       </c>
       <c r="V11" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>1.62</v>
+        <v>0.71</v>
       </c>
       <c r="X11" t="n">
-        <v>1.14</v>
+        <v>0.71</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="Z11" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.78</v>
+        <v>2.26</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="12">
@@ -1783,100 +1783,100 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Chornomorets</t>
+          <t>Vorskla</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rukh Vynnyky</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.55</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.85</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>6.8</v>
+        <v>9.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M12" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="N12" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="P12" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="R12" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="S12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="U12" t="n">
         <v>1.28</v>
       </c>
       <c r="V12" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="W12" t="n">
-        <v>0.71</v>
+        <v>1.62</v>
       </c>
       <c r="X12" t="n">
-        <v>0.71</v>
+        <v>1.14</v>
       </c>
       <c r="Y12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AE12" t="n">
         <v>1.23</v>
       </c>
-      <c r="Z12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1.24</v>
-      </c>
       <c r="AF12" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="AI12" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="13">
@@ -1898,88 +1898,88 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Start</t>
+          <t>Mjøndalen</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Sandnes Ulf</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="H13" t="n">
-        <v>3.55</v>
+        <v>3.53</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>2.53</v>
       </c>
       <c r="J13" t="n">
         <v>1.02</v>
       </c>
       <c r="K13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="M13" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="N13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.5</v>
       </c>
-      <c r="O13" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.44</v>
-      </c>
       <c r="S13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="U13" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="V13" t="n">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="W13" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.49</v>
+        <v>1.13</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.83</v>
+        <v>2.16</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.6</v>
+        <v>2.03</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF13" t="n">
         <v>1.28</v>
@@ -2013,100 +2013,100 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Raufoss</t>
+          <t>Skeid</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.37</v>
+        <v>1.42</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>4.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.52</v>
+        <v>4.75</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K14" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="L14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.25</v>
       </c>
-      <c r="M14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.33</v>
-      </c>
       <c r="Q14" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="U14" t="n">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="V14" t="n">
-        <v>1.6</v>
+        <v>2.22</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="X14" t="n">
         <v>0.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.28</v>
+        <v>2.82</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="AI14" t="n">
-        <v>2.23</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15">
@@ -2128,100 +2128,100 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Jerv</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Åsane</t>
+          <t>Hødd</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.69</v>
+        <v>2.05</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="I15" t="n">
-        <v>3.85</v>
+        <v>3.34</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>9.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L15" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="M15" t="n">
-        <v>3.55</v>
+        <v>3.32</v>
       </c>
       <c r="N15" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="O15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AH15" t="n">
         <v>1.95</v>
       </c>
-      <c r="P15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AI15" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16">
@@ -2243,100 +2243,100 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skeid</t>
+          <t>Åsane</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>3.73</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J16" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K16" t="n">
-        <v>22</v>
+        <v>9.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="M16" t="n">
-        <v>5.5</v>
+        <v>3.55</v>
       </c>
       <c r="N16" t="n">
-        <v>1.47</v>
+        <v>1.78</v>
       </c>
       <c r="O16" t="n">
-        <v>2.65</v>
+        <v>1.93</v>
       </c>
       <c r="P16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.14</v>
-      </c>
       <c r="V16" t="n">
-        <v>2.22</v>
+        <v>2.21</v>
       </c>
       <c r="W16" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.56</v>
+        <v>1.28</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AA16" t="n">
-        <v>2.82</v>
+        <v>2.59</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AI16" t="n">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="17">
@@ -2358,100 +2358,100 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Bryne</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sogndal</t>
+          <t>KFUM</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="H17" t="n">
-        <v>3.45</v>
+        <v>3.76</v>
       </c>
       <c r="I17" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="J17" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AE17" t="n">
         <v>1.18</v>
       </c>
-      <c r="M17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="AF17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AG17" t="n">
         <v>1.61</v>
       </c>
-      <c r="O17" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AH17" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="AI17" t="n">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="18">
@@ -2473,100 +2473,100 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jerv</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Hødd</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="H18" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="J18" t="n">
         <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="L18" t="n">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="M18" t="n">
-        <v>3.32</v>
+        <v>6.4</v>
       </c>
       <c r="N18" t="n">
-        <v>1.87</v>
+        <v>1.43</v>
       </c>
       <c r="O18" t="n">
-        <v>1.83</v>
+        <v>2.62</v>
       </c>
       <c r="P18" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="T18" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="U18" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="X18" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.02</v>
+        <v>1.34</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.28</v>
+        <v>2.83</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="19">
@@ -2588,22 +2588,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mjøndalen</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sandnes Ulf</t>
+          <t>Sogndal</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.27</v>
+        <v>1.96</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>3.53</v>
       </c>
       <c r="I19" t="n">
-        <v>2.69</v>
+        <v>2.8</v>
       </c>
       <c r="J19" t="n">
         <v>1.02</v>
@@ -2615,13 +2615,13 @@
         <v>1.18</v>
       </c>
       <c r="M19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="N19" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O19" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="P19" t="n">
         <v>1.3</v>
@@ -2630,58 +2630,58 @@
         <v>3.4</v>
       </c>
       <c r="R19" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S19" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T19" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="U19" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="V19" t="n">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="X19" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.13</v>
+        <v>1.94</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.03</v>
+        <v>1.63</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.16</v>
+        <v>3.57</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AG19" t="n">
         <v>1.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="20">
@@ -2703,22 +2703,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bryne</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>KFUM</t>
+          <t>Raufoss</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="H20" t="n">
-        <v>3.35</v>
+        <v>3.78</v>
       </c>
       <c r="I20" t="n">
-        <v>2.65</v>
+        <v>2.71</v>
       </c>
       <c r="J20" t="n">
         <v>1.03</v>
@@ -2730,13 +2730,13 @@
         <v>1.25</v>
       </c>
       <c r="M20" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N20" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P20" t="n">
         <v>1.33</v>
@@ -2745,64 +2745,64 @@
         <v>3.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="U20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
         <v>1.24</v>
       </c>
-      <c r="V20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1.34</v>
-      </c>
       <c r="AG20" t="n">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.65</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -2814,110 +2814,110 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>København</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.11</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>2.85</v>
+        <v>1.95</v>
       </c>
       <c r="J21" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="M21" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="N21" t="n">
-        <v>2.1</v>
+        <v>1.61</v>
       </c>
       <c r="O21" t="n">
-        <v>1.72</v>
+        <v>2.05</v>
       </c>
       <c r="P21" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.8</v>
       </c>
-      <c r="T21" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.88</v>
-      </c>
       <c r="X21" t="n">
-        <v>2.06</v>
+        <v>1.53</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AA21" t="n">
-        <v>3.19</v>
+        <v>3.31</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.39</v>
+        <v>1.82</v>
       </c>
       <c r="AC21" t="n">
         <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>1.82</v>
+        <v>2.39</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AH21" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="AI21" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -2929,104 +2929,104 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>København</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.94</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="M22" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="N22" t="n">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
       <c r="O22" t="n">
-        <v>2.09</v>
+        <v>1.67</v>
       </c>
       <c r="P22" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="R22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z22" t="n">
         <v>1.62</v>
       </c>
-      <c r="S22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1.61</v>
-      </c>
       <c r="AA22" t="n">
-        <v>3.31</v>
+        <v>3.19</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.82</v>
+        <v>2.39</v>
       </c>
       <c r="AC22" t="n">
         <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>2.39</v>
+        <v>1.82</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AH22" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="AI22" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="23">
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H23" t="n">
-        <v>3.64</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>3.69</v>
+        <v>3.8</v>
       </c>
       <c r="J23" t="n">
         <v>1.04</v>
@@ -3078,7 +3078,7 @@
         <v>4.45</v>
       </c>
       <c r="N23" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="O23" t="n">
         <v>2.1</v>
@@ -3163,100 +3163,100 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.26</v>
+        <v>2.45</v>
       </c>
       <c r="H24" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>6.8</v>
+        <v>2.6</v>
       </c>
       <c r="J24" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K24" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="L24" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="M24" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="N24" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="O24" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="P24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF24" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W24" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1.31</v>
-      </c>
       <c r="AG24" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="AH24" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="AI24" t="n">
-        <v>2.49</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="25">
@@ -3287,10 +3287,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I25" t="n">
         <v>3.7</v>
@@ -3350,28 +3350,28 @@
         <v>3.52</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -3393,106 +3393,106 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.45</v>
+        <v>1.28</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="I26" t="n">
+        <v>10</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O26" t="n">
         <v>2.6</v>
       </c>
-      <c r="J26" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K26" t="n">
-        <v>12</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2.15</v>
-      </c>
       <c r="P26" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="R26" t="n">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="S26" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="T26" t="n">
-        <v>1.47</v>
+        <v>1.06</v>
       </c>
       <c r="U26" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="V26" t="n">
-        <v>1.52</v>
+        <v>3.5</v>
       </c>
       <c r="W26" t="n">
-        <v>1.29</v>
+        <v>2.53</v>
       </c>
       <c r="X26" t="n">
-        <v>1.29</v>
+        <v>0.76</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.89</v>
+        <v>2.12</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.48</v>
+        <v>1.19</v>
       </c>
       <c r="AA26" t="n">
-        <v>3.37</v>
+        <v>3.31</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.88</v>
+        <v>1.15</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.5</v>
+        <v>13.75</v>
       </c>
       <c r="AD26" t="n">
-        <v>2.19</v>
+        <v>6.75</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AG26" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="AI26" t="n">
-        <v>2.29</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -3504,110 +3504,110 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Zürich</t>
+          <t>Lokomotiv Sofia 1929</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I27" t="n">
-        <v>2.65</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K27" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="M27" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N27" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="P27" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="R27" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W27" t="n">
         <v>1.63</v>
       </c>
-      <c r="S27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.35</v>
-      </c>
       <c r="X27" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.68</v>
+        <v>1.12</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.19</v>
+        <v>2.62</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -3619,104 +3619,104 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Lokomotiv Sofia 1929</t>
+          <t>Zürich</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>2.65</v>
       </c>
       <c r="J28" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K28" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="O28" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="P28" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="R28" t="n">
-        <v>1.84</v>
+        <v>1.63</v>
       </c>
       <c r="S28" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="T28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AB28" t="n">
         <v>1.78</v>
       </c>
-      <c r="U28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X28" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="29">
@@ -3738,100 +3738,100 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Stabæk</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vålerenga</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="M29" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="N29" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.86</v>
+        <v>1.6</v>
       </c>
       <c r="P29" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T29" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="U29" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="V29" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="X29" t="n">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.13</v>
+        <v>0.75</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.87</v>
+        <v>1.79</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="AC29" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.05</v>
+        <v>2.31</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AG29" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="AH29" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="AI29" t="n">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="30">
@@ -3853,37 +3853,37 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Strømsgodset</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.01</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="I30" t="n">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
         <v>1.03</v>
       </c>
       <c r="K30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L30" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M30" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="N30" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="O30" t="n">
         <v>2.1</v>
@@ -3895,58 +3895,58 @@
         <v>3.25</v>
       </c>
       <c r="R30" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="S30" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="T30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF30" t="n">
         <v>1.26</v>
       </c>
-      <c r="U30" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>1.24</v>
-      </c>
       <c r="AG30" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AH30" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AI30" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="31">
@@ -3968,22 +3968,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>FK Bodo - Glimt</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="H31" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="I31" t="n">
-        <v>11.5</v>
+        <v>6.5</v>
       </c>
       <c r="J31" t="n">
         <v>1.02</v>
@@ -3992,76 +3992,76 @@
         <v>26</v>
       </c>
       <c r="L31" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="M31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N31" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O31" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="P31" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="R31" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="S31" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="U31" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="V31" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="W31" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="X31" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.06</v>
+        <v>1.65</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.81</v>
+        <v>3.25</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AC31" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AD31" t="n">
-        <v>8.4</v>
+        <v>4.74</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AG31" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="AH31" t="n">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="AI31" t="n">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="32">
@@ -4083,100 +4083,100 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Stabæk</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Vålerenga</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.31</v>
+        <v>2.45</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="J32" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K32" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="L32" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="M32" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N32" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="O32" t="n">
         <v>1.8</v>
       </c>
       <c r="P32" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AB32" t="n">
         <v>1.95</v>
       </c>
-      <c r="S32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V32" t="n">
+      <c r="AC32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AG32" t="n">
         <v>1.63</v>
       </c>
-      <c r="W32" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X32" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1.47</v>
-      </c>
       <c r="AH32" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AI32" t="n">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="33">
@@ -4198,40 +4198,40 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Strømsgodset</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="H33" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="J33" t="n">
         <v>1.03</v>
       </c>
       <c r="K33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M33" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="N33" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="O33" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P33" t="n">
         <v>1.33</v>
@@ -4240,58 +4240,58 @@
         <v>3.25</v>
       </c>
       <c r="R33" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="S33" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="U33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V33" t="n">
-        <v>2.4</v>
+        <v>1.96</v>
       </c>
       <c r="W33" t="n">
         <v>1.33</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="AC33" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD33" t="n">
-        <v>3.54</v>
+        <v>2.61</v>
       </c>
       <c r="AE33" t="n">
         <v>1.11</v>
       </c>
       <c r="AF33" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AG33" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AH33" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="AI33" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="34">
@@ -4313,22 +4313,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
         <v>3.9</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="J34" t="n">
         <v>1.03</v>
@@ -4337,16 +4337,16 @@
         <v>13</v>
       </c>
       <c r="L34" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M34" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N34" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O34" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="P34" t="n">
         <v>1.33</v>
@@ -4355,58 +4355,58 @@
         <v>3.25</v>
       </c>
       <c r="R34" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S34" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T34" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="U34" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="V34" t="n">
-        <v>2.95</v>
+        <v>2.4</v>
       </c>
       <c r="W34" t="n">
-        <v>2.5</v>
+        <v>1.33</v>
       </c>
       <c r="X34" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.11</v>
+        <v>1.28</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.9</v>
+        <v>1.06</v>
       </c>
       <c r="AA34" t="n">
-        <v>3.01</v>
+        <v>2.34</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AC34" t="n">
         <v>11</v>
       </c>
       <c r="AD34" t="n">
-        <v>5.5</v>
+        <v>3.54</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AF34" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AG34" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="AI34" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="35">
@@ -4428,22 +4428,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FK Bodo - Glimt</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="I35" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="J35" t="n">
         <v>1.02</v>
@@ -4452,76 +4452,76 @@
         <v>26</v>
       </c>
       <c r="L35" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="M35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N35" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="O35" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="P35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF35" t="n">
         <v>1.22</v>
       </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S35" t="n">
+      <c r="AG35" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI35" t="n">
         <v>2.2</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="V35" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>2.65</v>
       </c>
     </row>
     <row r="36">
@@ -4552,13 +4552,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="H36" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>2.46</v>
+        <v>2.35</v>
       </c>
       <c r="J36" t="n">
         <v>1.01</v>
@@ -4573,10 +4573,10 @@
         <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="O36" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="P36" t="n">
         <v>1.3</v>
@@ -4667,13 +4667,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="H37" t="n">
-        <v>3.65</v>
+        <v>3.98</v>
       </c>
       <c r="I37" t="n">
-        <v>3.55</v>
+        <v>3.68</v>
       </c>
       <c r="J37" t="n">
         <v>1.02</v>
@@ -4688,10 +4688,10 @@
         <v>5</v>
       </c>
       <c r="N37" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="O37" t="n">
-        <v>2.35</v>
+        <v>2.77</v>
       </c>
       <c r="P37" t="n">
         <v>1.25</v>
@@ -4739,10 +4739,10 @@
         <v>2.9</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG37" t="n">
         <v>1.39</v>
@@ -4803,10 +4803,10 @@
         <v>3.04</v>
       </c>
       <c r="N38" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="O38" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="P38" t="n">
         <v>1.43</v>
@@ -4872,7 +4872,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Sweden Allsvenskan</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
@@ -4884,110 +4884,110 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K39" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q39" t="n">
         <v>3</v>
       </c>
-      <c r="I39" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K39" t="n">
-        <v>7</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M39" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N39" t="n">
+      <c r="R39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S39" t="n">
         <v>2.1</v>
       </c>
-      <c r="O39" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q39" t="n">
+      <c r="T39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI39" t="n">
         <v>2.62</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X39" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sweden Allsvenskan</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
@@ -4999,104 +4999,104 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.89</v>
+        <v>2.2</v>
       </c>
       <c r="H40" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K40" t="n">
-        <v>13.5</v>
+        <v>7</v>
       </c>
       <c r="L40" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="M40" t="n">
-        <v>3.95</v>
+        <v>2.75</v>
       </c>
       <c r="N40" t="n">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.98</v>
+        <v>1.57</v>
       </c>
       <c r="P40" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="R40" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="S40" t="n">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="T40" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="U40" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="V40" t="n">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="W40" t="n">
-        <v>1.67</v>
+        <v>1.31</v>
       </c>
       <c r="X40" t="n">
-        <v>0.25</v>
+        <v>1.38</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AA40" t="n">
-        <v>3.14</v>
+        <v>3.33</v>
       </c>
       <c r="AB40" t="n">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD40" t="n">
-        <v>2.78</v>
+        <v>2.58</v>
       </c>
       <c r="AE40" t="n">
-        <v>1.18</v>
+        <v>1.51</v>
       </c>
       <c r="AF40" t="n">
-        <v>1.33</v>
+        <v>1.87</v>
       </c>
       <c r="AG40" t="n">
-        <v>1.57</v>
+        <v>2.35</v>
       </c>
       <c r="AH40" t="n">
-        <v>2.03</v>
+        <v>3.28</v>
       </c>
       <c r="AI40" t="n">
-        <v>2.62</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="41">
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="I41" t="n">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="J41" t="n">
         <v>1.03</v>
@@ -5148,10 +5148,10 @@
         <v>4.58</v>
       </c>
       <c r="N41" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="O41" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P41" t="n">
         <v>1.31</v>
@@ -5199,7 +5199,7 @@
         <v>4.42</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF41" t="n">
         <v>1.18</v>
@@ -5245,10 +5245,10 @@
         <v>1.36</v>
       </c>
       <c r="H42" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I42" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="J42" t="n">
         <v>1.02</v>
@@ -5263,10 +5263,10 @@
         <v>5.4</v>
       </c>
       <c r="N42" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O42" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="P42" t="n">
         <v>1.26</v>
@@ -5314,7 +5314,7 @@
         <v>5.6</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AF42" t="n">
         <v>1.15</v>
@@ -5357,13 +5357,13 @@
         </is>
       </c>
       <c r="G43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H43" t="n">
         <v>3.25</v>
       </c>
-      <c r="H43" t="n">
-        <v>3.3</v>
-      </c>
       <c r="I43" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
         <v>1.02</v>
@@ -5378,10 +5378,10 @@
         <v>3.26</v>
       </c>
       <c r="N43" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="O43" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="P43" t="n">
         <v>1.4</v>
@@ -5447,7 +5447,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -5459,110 +5459,110 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Südtirol</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Bari 1908</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.41</v>
+        <v>2.8</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>2.87</v>
       </c>
       <c r="I44" t="n">
-        <v>6.8</v>
+        <v>2.62</v>
       </c>
       <c r="J44" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="K44" t="n">
-        <v>8</v>
+        <v>6.83</v>
       </c>
       <c r="L44" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="M44" t="n">
-        <v>2.93</v>
+        <v>2.37</v>
       </c>
       <c r="N44" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.91</v>
+        <v>1.47</v>
       </c>
       <c r="P44" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="R44" t="n">
         <v>2.1</v>
       </c>
       <c r="S44" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="T44" t="n">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="U44" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="V44" t="n">
-        <v>2.25</v>
+        <v>1.44</v>
       </c>
       <c r="W44" t="n">
-        <v>2.38</v>
+        <v>1.56</v>
       </c>
       <c r="X44" t="n">
-        <v>0.92</v>
+        <v>1.71</v>
       </c>
       <c r="Y44" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AG44" t="n">
         <v>1.76</v>
       </c>
-      <c r="Z44" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>1.99</v>
-      </c>
       <c r="AH44" t="n">
-        <v>2.6</v>
+        <v>2.18</v>
       </c>
       <c r="AI44" t="n">
-        <v>3.56</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -5574,104 +5574,104 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Südtirol</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Bari 1908</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="W45" t="n">
-        <v>1.56</v>
+        <v>2.38</v>
       </c>
       <c r="X45" t="n">
-        <v>1.71</v>
+        <v>0.92</v>
       </c>
       <c r="Y45" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE45" t="n">
         <v>1.31</v>
       </c>
-      <c r="Z45" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0</v>
-      </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="46">
@@ -5774,19 +5774,19 @@
         <v>1.91</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG46" t="n">
         <v>1.95</v>
       </c>
       <c r="AH46" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AI46" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="47">
@@ -5817,13 +5817,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="H47" t="n">
-        <v>3.48</v>
+        <v>3.25</v>
       </c>
       <c r="I47" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J47" t="n">
         <v>1.01</v>
@@ -5838,10 +5838,10 @@
         <v>3.56</v>
       </c>
       <c r="N47" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="O47" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="P47" t="n">
         <v>1.34</v>
@@ -5898,7 +5898,7 @@
         <v>2</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AI47" t="n">
         <v>0</v>
@@ -5923,22 +5923,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Keflavík</t>
+          <t>Víkingur Reykjavík</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Valur</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.8</v>
+        <v>1.75</v>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="I48" t="n">
-        <v>1.47</v>
+        <v>3.3</v>
       </c>
       <c r="J48" t="n">
         <v>1.02</v>
@@ -5947,76 +5947,76 @@
         <v>13</v>
       </c>
       <c r="L48" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N48" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="O48" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="P48" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R48" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="S48" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="T48" t="n">
-        <v>2.6</v>
+        <v>1.29</v>
       </c>
       <c r="U48" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="V48" t="n">
-        <v>1.11</v>
+        <v>1.75</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X48" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.26</v>
+        <v>1.73</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="AA48" t="n">
-        <v>2.7</v>
+        <v>3.37</v>
       </c>
       <c r="AB48" t="n">
-        <v>3.66</v>
+        <v>1.82</v>
       </c>
       <c r="AC48" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>1.37</v>
+        <v>2.28</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AF48" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AH48" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AI48" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="49">
@@ -6038,22 +6038,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Víkingur Reykjavík</t>
+          <t>Keflavík</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Valur</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.08</v>
+        <v>5.7</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>4.65</v>
       </c>
       <c r="I49" t="n">
-        <v>3.2</v>
+        <v>1.32</v>
       </c>
       <c r="J49" t="n">
         <v>1.02</v>
@@ -6062,76 +6062,76 @@
         <v>13</v>
       </c>
       <c r="L49" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M49" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N49" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="O49" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
         <v>2.4</v>
       </c>
-      <c r="P49" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S49" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U49" t="n">
+      <c r="Y49" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG49" t="n">
         <v>1.3</v>
       </c>
-      <c r="V49" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W49" t="n">
-        <v>3</v>
-      </c>
-      <c r="X49" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>1.31</v>
-      </c>
       <c r="AH49" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="AI49" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="50">
@@ -6277,52 +6277,52 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="H51" t="n">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N51" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="O51" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W51" t="n">
         <v>2</v>
@@ -6392,13 +6392,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.64</v>
+        <v>2.89</v>
       </c>
       <c r="H52" t="n">
-        <v>3.06</v>
+        <v>3.3</v>
       </c>
       <c r="I52" t="n">
-        <v>2.26</v>
+        <v>2.37</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="O52" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -6498,100 +6498,100 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Huracán</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Unión Santa Fe</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I53" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K53" t="n">
         <v>6.5</v>
       </c>
       <c r="L53" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="M53" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="N53" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="O53" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="P53" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q53" t="n">
         <v>2.35</v>
       </c>
       <c r="R53" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S53" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="T53" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U53" t="n">
         <v>1.33</v>
       </c>
-      <c r="U53" t="n">
-        <v>1.36</v>
-      </c>
       <c r="V53" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AB53" t="n">
         <v>1.57</v>
       </c>
-      <c r="W53" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X53" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>1.77</v>
-      </c>
       <c r="AC53" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD53" t="n">
-        <v>2.44</v>
+        <v>2.94</v>
       </c>
       <c r="AE53" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AF53" t="n">
         <v>1.53</v>
       </c>
       <c r="AG53" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AH53" t="n">
-        <v>2.28</v>
+        <v>2.29</v>
       </c>
       <c r="AI53" t="n">
-        <v>3.14</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="54">
@@ -6613,100 +6613,100 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Huracán</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Unión Santa Fe</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="H54" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" t="n">
         <v>3.2</v>
       </c>
-      <c r="I54" t="n">
-        <v>4</v>
-      </c>
       <c r="J54" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K54" t="n">
         <v>6.5</v>
       </c>
       <c r="L54" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M54" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N54" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="O54" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="P54" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="Q54" t="n">
         <v>2.35</v>
       </c>
       <c r="R54" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S54" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="T54" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="U54" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V54" t="n">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="W54" t="n">
-        <v>1.5</v>
+        <v>1.11</v>
       </c>
       <c r="X54" t="n">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AA54" t="n">
-        <v>2.43</v>
+        <v>2.71</v>
       </c>
       <c r="AB54" t="n">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AC54" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD54" t="n">
-        <v>2.94</v>
+        <v>2.44</v>
       </c>
       <c r="AE54" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AF54" t="n">
         <v>1.53</v>
       </c>
       <c r="AG54" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="AH54" t="n">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="AI54" t="n">
-        <v>3.18</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="55">
@@ -6737,13 +6737,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="H55" t="n">
-        <v>3.1</v>
+        <v>3.36</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="J55" t="n">
         <v>1.05</v>
@@ -6758,10 +6758,10 @@
         <v>2.68</v>
       </c>
       <c r="N55" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O55" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="P55" t="n">
         <v>1.5</v>
@@ -6827,7 +6827,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
@@ -6839,110 +6839,110 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Sampaio Corrêa</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.1</v>
+        <v>2.09</v>
       </c>
       <c r="H56" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="I56" t="n">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="J56" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K56" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="L56" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P56" t="n">
         <v>1.5</v>
       </c>
-      <c r="M56" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N56" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1.55</v>
-      </c>
       <c r="Q56" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="R56" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="T56" t="n">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="U56" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="V56" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W56" t="n">
         <v>1.25</v>
       </c>
-      <c r="W56" t="n">
-        <v>1.44</v>
-      </c>
       <c r="X56" t="n">
-        <v>1.75</v>
+        <v>0.33</v>
       </c>
       <c r="Y56" t="n">
         <v>1.55</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="AA56" t="n">
-        <v>3.09</v>
+        <v>3.16</v>
       </c>
       <c r="AB56" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AC56" t="n">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="AE56" t="n">
         <v>1.32</v>
       </c>
       <c r="AF56" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="AG56" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AH56" t="n">
-        <v>2.72</v>
+        <v>2.35</v>
       </c>
       <c r="AI56" t="n">
-        <v>3.64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Brazil Serie C</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
@@ -6954,80 +6954,80 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Aparecidense</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sampaio Corrêa</t>
+          <t>Altos</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="H57" t="n">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="I57" t="n">
-        <v>3.8</v>
+        <v>3.92</v>
       </c>
       <c r="J57" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L57" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="M57" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N57" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="O57" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="P57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="W57" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q57" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R57" t="n">
-        <v>2</v>
-      </c>
-      <c r="S57" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="T57" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V57" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1.25</v>
-      </c>
       <c r="X57" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.55</v>
+        <v>1.97</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AA57" t="n">
-        <v>3.16</v>
+        <v>3.61</v>
       </c>
       <c r="AB57" t="n">
         <v>0</v>
@@ -7073,76 +7073,76 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Aparecidense</t>
+          <t>Floresta</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Altos</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.94</v>
+        <v>2.17</v>
       </c>
       <c r="H58" t="n">
-        <v>3.24</v>
+        <v>2.92</v>
       </c>
       <c r="I58" t="n">
-        <v>3.92</v>
+        <v>3.6</v>
       </c>
       <c r="J58" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L58" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M58" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N58" t="n">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="O58" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="P58" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q58" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R58" t="n">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="S58" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="T58" t="n">
         <v>1.26</v>
       </c>
       <c r="U58" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="V58" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="W58" t="n">
         <v>1.5</v>
       </c>
       <c r="X58" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y58" t="n">
-        <v>1.97</v>
+        <v>1.41</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AA58" t="n">
-        <v>3.61</v>
+        <v>2.74</v>
       </c>
       <c r="AB58" t="n">
         <v>0</v>
@@ -7172,7 +7172,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Brazil Serie D</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
@@ -7184,110 +7184,110 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Águia de Marabá</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>São Francisco</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W59" t="n">
-        <v>3</v>
+        <v>1.44</v>
       </c>
       <c r="X59" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.02</v>
+        <v>1.55</v>
       </c>
       <c r="Z59" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AA59" t="n">
-        <v>1.02</v>
+        <v>3.09</v>
       </c>
       <c r="AB59" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AD59" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AE59" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF59" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG59" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AH59" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AI59" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Brazil Serie C</t>
+          <t>Brazil Serie D</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
@@ -7299,80 +7299,80 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Floresta</t>
+          <t>Águia de Marabá</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>São Francisco</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.17</v>
+        <v>1.55</v>
       </c>
       <c r="H60" t="n">
-        <v>2.92</v>
+        <v>3.8</v>
       </c>
       <c r="I60" t="n">
-        <v>3.6</v>
+        <v>5.05</v>
       </c>
       <c r="J60" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="K60" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="L60" t="n">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="M60" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W60" t="n">
         <v>3</v>
       </c>
-      <c r="N60" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P60" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R60" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S60" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T60" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="U60" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V60" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="W60" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X60" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.41</v>
+        <v>1.02</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>2.74</v>
+        <v>1.02</v>
       </c>
       <c r="AB60" t="n">
         <v>0</v>
@@ -7427,13 +7427,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H61" t="n">
-        <v>3.8</v>
+        <v>4.12</v>
       </c>
       <c r="I61" t="n">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -7448,10 +7448,10 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="O61" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.76</v>
+        <v>1.41</v>
       </c>
       <c r="H62" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="I62" t="n">
-        <v>3.75</v>
+        <v>4.65</v>
       </c>
       <c r="J62" t="n">
         <v>1.04</v>
@@ -7605,13 +7605,13 @@
         <v>2.14</v>
       </c>
       <c r="AB62" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AC62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD62" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AE62" t="n">
         <v>1.5</v>
@@ -7627,6 +7627,236 @@
       </c>
       <c r="AI62" t="n">
         <v>5.2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>18</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Vélez Sarsfield</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K63" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>19</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Cortuluá</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K64" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-05-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -690,10 +690,10 @@
         <v>1.45</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="X2" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="Y2" t="n">
         <v>1.53</v>
@@ -726,7 +726,7 @@
         <v>2.98</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3">
@@ -778,10 +778,10 @@
         <v>3.1</v>
       </c>
       <c r="N3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="P3" t="n">
         <v>1.44</v>
@@ -805,10 +805,10 @@
         <v>1.47</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="X3" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
         <v>1.6</v>
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.35</v>
+        <v>4.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="J4" t="n">
         <v>1.04</v>
@@ -893,10 +893,10 @@
         <v>3.9</v>
       </c>
       <c r="N4" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="O4" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="P4" t="n">
         <v>1.35</v>
@@ -920,10 +920,10 @@
         <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="Y4" t="n">
         <v>1.53</v>
@@ -978,106 +978,106 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AaB</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>1.98</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="M5" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="N5" t="n">
         <v>1.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Y5" t="n">
         <v>1.62</v>
       </c>
-      <c r="U5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.39</v>
-      </c>
       <c r="Z5" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AC5" t="n">
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Ukraine Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1089,104 +1089,104 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Metalist 1925 Kharkiv</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Hirnyk</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="I6" t="n">
-        <v>2.15</v>
+        <v>2.37</v>
       </c>
       <c r="J6" t="n">
         <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>14.5</v>
+        <v>8.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="N6" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="O6" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="P6" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.25</v>
+        <v>2.87</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="U6" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="V6" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="W6" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="X6" t="n">
-        <v>1.87</v>
+        <v>1.07</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.62</v>
+        <v>0.83</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.53</v>
+        <v>1.14</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.15</v>
+        <v>1.97</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.75</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="7">
@@ -1208,100 +1208,100 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dynamo Kyiv</t>
+          <t>Lviv</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Veres Rivne</t>
+          <t>Inhulets</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.33</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>3.28</v>
       </c>
       <c r="I7" t="n">
-        <v>8.5</v>
+        <v>2.16</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N7" t="n">
-        <v>1.61</v>
+        <v>2.15</v>
       </c>
       <c r="O7" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W7" t="n">
-        <v>1.57</v>
+        <v>0.53</v>
       </c>
       <c r="X7" t="n">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="Z7" t="n">
         <v>1.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.74</v>
+        <v>2.21</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1323,100 +1323,100 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Metal Kharkiv</t>
+          <t>Vorskla</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Minai</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>1.82</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.52</v>
       </c>
       <c r="I8" t="n">
-        <v>2.63</v>
+        <v>4.52</v>
       </c>
       <c r="J8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K8" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="L8" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="N8" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P8" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="S8" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="U8" t="n">
         <v>1.28</v>
       </c>
       <c r="V8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Y8" t="n">
         <v>1.38</v>
       </c>
-      <c r="W8" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.06</v>
-      </c>
       <c r="Z8" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.98</v>
+        <v>1.57</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.06</v>
+        <v>2.78</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AH8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AI8" t="n">
-        <v>3.14</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="9">
@@ -1438,100 +1438,100 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Metalist 1925 Kharkiv</t>
+          <t>Metal Kharkiv</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hirnyk</t>
+          <t>Minai</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>2.85</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I9" t="n">
-        <v>2.1</v>
+        <v>2.65</v>
       </c>
       <c r="J9" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="K9" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N9" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="P9" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.87</v>
+        <v>2.45</v>
       </c>
       <c r="R9" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="S9" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="T9" t="n">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="U9" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="V9" t="n">
         <v>1.38</v>
       </c>
       <c r="W9" t="n">
-        <v>1.23</v>
+        <v>0.79</v>
       </c>
       <c r="X9" t="n">
-        <v>0.92</v>
+        <v>1.27</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.83</v>
+        <v>1.06</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.14</v>
+        <v>0.99</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.36</v>
+        <v>1.98</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.76</v>
+        <v>2.06</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.04</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="10">
@@ -1553,106 +1553,106 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lviv</t>
+          <t>Dynamo Kyiv</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>Veres Rivne</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>1.36</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>5.05</v>
       </c>
       <c r="I10" t="n">
-        <v>1.43</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2.33</v>
+        <v>1.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="P10" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.67</v>
       </c>
-      <c r="T10" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.57</v>
-      </c>
       <c r="X10" t="n">
-        <v>0.85</v>
+        <v>1.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="Z10" t="n">
         <v>1.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.21</v>
+        <v>2.74</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ukraine Ukrainian Premier League</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1664,104 +1664,104 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Chornomorets</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rukh Vynnyky</t>
+          <t>AaB</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="H11" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q11" t="n">
         <v>3</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K11" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="R11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI11" t="n">
         <v>2.8</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>3.08</v>
       </c>
     </row>
     <row r="12">
@@ -1783,100 +1783,100 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Vorskla</t>
+          <t>Chornomorets</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Rukh Vynnyky</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.91</v>
+        <v>2.55</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>2.85</v>
       </c>
       <c r="J12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K12" t="n">
-        <v>9.25</v>
+        <v>6.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="N12" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="P12" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="R12" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="S12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T12" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="U12" t="n">
         <v>1.28</v>
       </c>
       <c r="V12" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="W12" t="n">
-        <v>1.62</v>
+        <v>0.67</v>
       </c>
       <c r="X12" t="n">
-        <v>1.14</v>
+        <v>0.87</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.78</v>
+        <v>2.26</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="AI12" t="n">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="13">
@@ -1898,22 +1898,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mjøndalen</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sandnes Ulf</t>
+          <t>Sogndal</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="H13" t="n">
         <v>3.53</v>
       </c>
       <c r="I13" t="n">
-        <v>2.53</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
         <v>1.02</v>
@@ -1925,13 +1925,13 @@
         <v>1.18</v>
       </c>
       <c r="M13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="N13" t="n">
         <v>1.62</v>
       </c>
       <c r="O13" t="n">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="P13" t="n">
         <v>1.3</v>
@@ -1940,58 +1940,58 @@
         <v>3.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="U13" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="V13" t="n">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="X13" t="n">
-        <v>0.5</v>
+        <v>1.17</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.13</v>
+        <v>1.94</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.03</v>
+        <v>1.63</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.16</v>
+        <v>3.57</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.03</v>
+        <v>2.33</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AG13" t="n">
         <v>1.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="14">
@@ -2043,10 +2043,10 @@
         <v>5.5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="O14" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="P14" t="n">
         <v>1.25</v>
@@ -2070,10 +2070,10 @@
         <v>2.22</v>
       </c>
       <c r="W14" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="X14" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="Y14" t="n">
         <v>1.56</v>
@@ -2128,100 +2128,100 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Jerv</t>
+          <t>Mjøndalen</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hødd</t>
+          <t>Sandnes Ulf</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="H15" t="n">
-        <v>3.74</v>
+        <v>3.53</v>
       </c>
       <c r="I15" t="n">
-        <v>3.34</v>
+        <v>2.53</v>
       </c>
       <c r="J15" t="n">
         <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>9.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="L15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.27</v>
       </c>
-      <c r="M15" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.29</v>
-      </c>
       <c r="U15" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="X15" t="n">
         <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.49</v>
+        <v>2.02</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.25</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.08</v>
+        <v>2.03</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="16">
@@ -2243,100 +2243,100 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Åsane</t>
+          <t>Raufoss</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.53</v>
+        <v>2.36</v>
       </c>
       <c r="H16" t="n">
-        <v>3.73</v>
+        <v>3.78</v>
       </c>
       <c r="I16" t="n">
-        <v>4.4</v>
+        <v>2.71</v>
       </c>
       <c r="J16" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="n">
-        <v>9.9</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
         <v>1.24</v>
       </c>
-      <c r="M16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AG16" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AI16" t="n">
-        <v>2.28</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="17">
@@ -2358,100 +2358,100 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bryne</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>KFUM</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="H17" t="n">
-        <v>3.76</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K17" t="n">
         <v>13</v>
       </c>
       <c r="L17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="P17" t="n">
         <v>1.25</v>
       </c>
-      <c r="M17" t="n">
+      <c r="Q17" t="n">
         <v>3.75</v>
       </c>
-      <c r="N17" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="R17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W17" t="n">
         <v>2</v>
       </c>
-      <c r="P17" t="n">
+      <c r="X17" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="V17" t="n">
+      <c r="Y17" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AG17" t="n">
         <v>1.5</v>
       </c>
-      <c r="W17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1.61</v>
-      </c>
       <c r="AH17" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="AI17" t="n">
-        <v>2.65</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="18">
@@ -2473,100 +2473,100 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Start</t>
+          <t>Jerv</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Hødd</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.74</v>
       </c>
       <c r="I18" t="n">
-        <v>2.7</v>
+        <v>3.34</v>
       </c>
       <c r="J18" t="n">
         <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>1.11</v>
+        <v>1.27</v>
       </c>
       <c r="M18" t="n">
-        <v>6.4</v>
+        <v>3.32</v>
       </c>
       <c r="N18" t="n">
-        <v>1.43</v>
+        <v>1.85</v>
       </c>
       <c r="O18" t="n">
-        <v>2.62</v>
+        <v>1.85</v>
       </c>
       <c r="P18" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="U18" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="V18" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="W18" t="n">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="X18" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="Y18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AB18" t="n">
         <v>1.49</v>
       </c>
-      <c r="Z18" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1.65</v>
-      </c>
       <c r="AC18" t="n">
-        <v>9.699999999999999</v>
+        <v>10.25</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.6</v>
+        <v>3.08</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19">
@@ -2588,100 +2588,100 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sogndal</t>
+          <t>Åsane</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.96</v>
+        <v>1.53</v>
       </c>
       <c r="H19" t="n">
-        <v>3.53</v>
+        <v>3.73</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K19" t="n">
-        <v>15</v>
+        <v>9.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="M19" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="N19" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="O19" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="S19" t="n">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="T19" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="U19" t="n">
         <v>1.25</v>
       </c>
       <c r="V19" t="n">
-        <v>1.77</v>
+        <v>2.21</v>
       </c>
       <c r="W19" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="X19" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.94</v>
+        <v>1.28</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AA19" t="n">
-        <v>3.57</v>
+        <v>2.59</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.79</v>
+        <v>1.45</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.33</v>
+        <v>3.24</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.43</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="20">
@@ -2703,22 +2703,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Bryne</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Raufoss</t>
+          <t>KFUM</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="H20" t="n">
-        <v>3.78</v>
+        <v>3.76</v>
       </c>
       <c r="I20" t="n">
-        <v>2.71</v>
+        <v>2.9</v>
       </c>
       <c r="J20" t="n">
         <v>1.03</v>
@@ -2730,13 +2730,13 @@
         <v>1.25</v>
       </c>
       <c r="M20" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N20" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
         <v>1.33</v>
@@ -2745,64 +2745,64 @@
         <v>3.25</v>
       </c>
       <c r="R20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="n">
         <v>1.62</v>
       </c>
-      <c r="S20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.84</v>
-      </c>
       <c r="Z20" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AA20" t="n">
-        <v>3.28</v>
+        <v>3.07</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.99</v>
+        <v>1.73</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.06</v>
+        <v>2.45</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.74</v>
+        <v>2.02</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.23</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -2814,110 +2814,110 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>København</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K21" t="n">
+        <v>10</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.95</v>
       </c>
-      <c r="J21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z21" t="n">
         <v>1.62</v>
       </c>
-      <c r="S21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1.61</v>
-      </c>
       <c r="AA21" t="n">
-        <v>3.31</v>
+        <v>3.19</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.82</v>
+        <v>2.39</v>
       </c>
       <c r="AC21" t="n">
         <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.39</v>
+        <v>1.82</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AH21" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="AI21" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -2929,104 +2929,104 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>København</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.4</v>
+        <v>2.68</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="I22" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S22" t="n">
         <v>2.2</v>
       </c>
-      <c r="J22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K22" t="n">
-        <v>10</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T22" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="U22" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="V22" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="W22" t="n">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="X22" t="n">
-        <v>2.06</v>
+        <v>1.63</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AA22" t="n">
-        <v>3.19</v>
+        <v>3.31</v>
       </c>
       <c r="AB22" t="n">
-        <v>2.39</v>
+        <v>1.82</v>
       </c>
       <c r="AC22" t="n">
         <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>1.82</v>
+        <v>2.39</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AH22" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="AI22" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="23">
@@ -3048,100 +3048,100 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Grasshopper</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="H23" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>10</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q23" t="n">
         <v>3.6</v>
       </c>
-      <c r="I23" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K23" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M23" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3.2</v>
-      </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="S23" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="T23" t="n">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="U23" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="V23" t="n">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="W23" t="n">
-        <v>1.35</v>
+        <v>2.56</v>
       </c>
       <c r="X23" t="n">
-        <v>0.82</v>
+        <v>0.72</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AA23" t="n">
-        <v>3.17</v>
+        <v>3.31</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>13.75</v>
       </c>
       <c r="AD23" t="n">
-        <v>3.06</v>
+        <v>6.75</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="AH23" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AI23" t="n">
-        <v>2.29</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="24">
@@ -3163,100 +3163,100 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="J24" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L24" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF24" t="n">
         <v>1.2</v>
       </c>
-      <c r="M24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AG24" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AH24" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="AI24" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -3278,100 +3278,100 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>3.7</v>
+        <v>2.45</v>
       </c>
       <c r="J25" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L25" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="M25" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N25" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O25" t="n">
-        <v>2.55</v>
+        <v>2.41</v>
       </c>
       <c r="P25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF25" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q25" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AG25" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="AI25" t="n">
-        <v>2</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="26">
@@ -3393,100 +3393,100 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Grasshopper</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.28</v>
+        <v>1.83</v>
       </c>
       <c r="H26" t="n">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K26" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC26" t="n">
         <v>10</v>
       </c>
-      <c r="J26" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M26" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W26" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>13.75</v>
-      </c>
       <c r="AD26" t="n">
-        <v>6.75</v>
+        <v>3.06</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AG26" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AI26" t="n">
-        <v>2.49</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="27">
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.2</v>
+        <v>3.52</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>3.44</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="J27" t="n">
         <v>1.07</v>
@@ -3541,7 +3541,7 @@
         <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="P27" t="n">
         <v>1.4</v>
@@ -3565,10 +3565,10 @@
         <v>1.28</v>
       </c>
       <c r="W27" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="X27" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="Y27" t="n">
         <v>1.5</v>
@@ -3632,13 +3632,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I28" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="J28" t="n">
         <v>1.05</v>
@@ -3653,10 +3653,10 @@
         <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O28" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="P28" t="n">
         <v>1.35</v>
@@ -3680,10 +3680,10 @@
         <v>1.53</v>
       </c>
       <c r="W28" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="X28" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="Y28" t="n">
         <v>1.51</v>
@@ -3738,100 +3738,100 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Stabæk</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Vålerenga</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="J29" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K29" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="L29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P29" t="n">
         <v>1.4</v>
       </c>
-      <c r="M29" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="Q29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH29" t="n">
         <v>2.1</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X29" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>1.93</v>
-      </c>
       <c r="AI29" t="n">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="30">
@@ -3862,13 +3862,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="H30" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J30" t="n">
         <v>1.03</v>
@@ -3883,10 +3883,10 @@
         <v>4.2</v>
       </c>
       <c r="N30" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="O30" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P30" t="n">
         <v>1.33</v>
@@ -3910,10 +3910,10 @@
         <v>2.95</v>
       </c>
       <c r="W30" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="X30" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="Y30" t="n">
         <v>2.11</v>
@@ -3968,22 +3968,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FK Bodo - Glimt</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="H31" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="J31" t="n">
         <v>1.02</v>
@@ -3992,76 +3992,76 @@
         <v>26</v>
       </c>
       <c r="L31" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="M31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N31" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O31" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="P31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF31" t="n">
         <v>1.22</v>
       </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S31" t="n">
+      <c r="AG31" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI31" t="n">
         <v>2.2</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="V31" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>2.65</v>
       </c>
     </row>
     <row r="32">
@@ -4083,100 +4083,100 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Stabæk</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vålerenga</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="H32" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K32" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="M32" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="N32" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S32" t="n">
         <v>1.8</v>
       </c>
-      <c r="P32" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2</v>
-      </c>
       <c r="T32" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="U32" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="V32" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="X32" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.13</v>
+        <v>0.75</v>
       </c>
       <c r="AA32" t="n">
-        <v>2.87</v>
+        <v>1.79</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="AC32" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>2.05</v>
+        <v>2.31</v>
       </c>
       <c r="AE32" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="AF32" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AG32" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="AH32" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="AI32" t="n">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="33">
@@ -4207,10 +4207,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I33" t="n">
         <v>3.7</v>
@@ -4228,7 +4228,7 @@
         <v>4.33</v>
       </c>
       <c r="N33" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O33" t="n">
         <v>2.1</v>
@@ -4255,10 +4255,10 @@
         <v>1.96</v>
       </c>
       <c r="W33" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X33" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="Y33" t="n">
         <v>1.3</v>
@@ -4313,100 +4313,100 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>FK Bodo - Glimt</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="H34" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="J34" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K34" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L34" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="M34" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N34" t="n">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>2.85</v>
       </c>
       <c r="P34" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA34" t="n">
         <v>3.25</v>
       </c>
-      <c r="R34" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>2.34</v>
-      </c>
       <c r="AB34" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AC34" t="n">
         <v>11</v>
       </c>
       <c r="AD34" t="n">
-        <v>3.54</v>
+        <v>4.74</v>
       </c>
       <c r="AE34" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="AF34" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AG34" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AH34" t="n">
         <v>1.98</v>
       </c>
       <c r="AI34" t="n">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="35">
@@ -4428,46 +4428,46 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="I35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K35" t="n">
         <v>13</v>
       </c>
-      <c r="J35" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K35" t="n">
-        <v>26</v>
-      </c>
       <c r="L35" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="M35" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="N35" t="n">
-        <v>1.36</v>
+        <v>1.78</v>
       </c>
       <c r="O35" t="n">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="P35" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="R35" t="n">
         <v>1.91</v>
@@ -4476,58 +4476,58 @@
         <v>1.91</v>
       </c>
       <c r="T35" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="U35" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="V35" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="W35" t="n">
         <v>1.75</v>
       </c>
       <c r="X35" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.75</v>
+        <v>1.28</v>
       </c>
       <c r="Z35" t="n">
         <v>1.06</v>
       </c>
       <c r="AA35" t="n">
-        <v>2.81</v>
+        <v>2.34</v>
       </c>
       <c r="AB35" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AC35" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AD35" t="n">
-        <v>8.4</v>
+        <v>3.54</v>
       </c>
       <c r="AE35" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AF35" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AG35" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="AI35" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
@@ -4539,110 +4539,110 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Brøndby</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Nordsjælland</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="J36" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K36" t="n">
-        <v>12</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L36" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>3.04</v>
       </c>
       <c r="N36" t="n">
-        <v>1.7</v>
+        <v>2.03</v>
       </c>
       <c r="O36" t="n">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="P36" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="R36" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="S36" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="T36" t="n">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="U36" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="V36" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="W36" t="n">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="X36" t="n">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="AA36" t="n">
-        <v>3.28</v>
+        <v>3</v>
       </c>
       <c r="AB36" t="n">
-        <v>2.39</v>
+        <v>2.71</v>
       </c>
       <c r="AC36" t="n">
-        <v>8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="AE36" t="n">
         <v>1.2</v>
       </c>
       <c r="AF36" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AG36" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AH36" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="AI36" t="n">
-        <v>2.95</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Iceland Úrvalsdeild</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
@@ -4658,106 +4658,106 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KA</t>
+          <t>Brøndby</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>Nordsjælland</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.88</v>
+        <v>2.88</v>
       </c>
       <c r="H37" t="n">
-        <v>3.98</v>
+        <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>3.68</v>
+        <v>2.15</v>
       </c>
       <c r="J37" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L37" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="n">
-        <v>1.39</v>
+        <v>1.77</v>
       </c>
       <c r="O37" t="n">
-        <v>2.77</v>
+        <v>2.04</v>
       </c>
       <c r="P37" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="R37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W37" t="n">
         <v>1.5</v>
       </c>
-      <c r="S37" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.33</v>
-      </c>
       <c r="X37" t="n">
-        <v>0.33</v>
+        <v>1.19</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.39</v>
+        <v>1.77</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="AA37" t="n">
-        <v>2.99</v>
+        <v>3.28</v>
       </c>
       <c r="AB37" t="n">
-        <v>1.55</v>
+        <v>2.39</v>
       </c>
       <c r="AC37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD37" t="n">
-        <v>2.9</v>
+        <v>1.82</v>
       </c>
       <c r="AE37" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AF37" t="n">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AG37" t="n">
-        <v>1.39</v>
+        <v>1.73</v>
       </c>
       <c r="AH37" t="n">
-        <v>1.7</v>
+        <v>2.22</v>
       </c>
       <c r="AI37" t="n">
-        <v>2.12</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Iceland Úrvalsdeild</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
@@ -4769,110 +4769,110 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>KA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>Fram</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>1.73</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I38" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="J38" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K38" t="n">
-        <v>8.300000000000001</v>
+        <v>13</v>
       </c>
       <c r="L38" t="n">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="M38" t="n">
-        <v>3.04</v>
+        <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>1.97</v>
+        <v>1.52</v>
       </c>
       <c r="O38" t="n">
-        <v>1.74</v>
+        <v>2.45</v>
       </c>
       <c r="P38" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="R38" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="S38" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>1.22</v>
       </c>
       <c r="U38" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF38" t="n">
         <v>1.28</v>
       </c>
-      <c r="V38" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="X38" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>1.36</v>
-      </c>
       <c r="AG38" t="n">
-        <v>1.68</v>
+        <v>1.39</v>
       </c>
       <c r="AH38" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="AI38" t="n">
-        <v>2.67</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sweden Allsvenskan</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
@@ -4884,110 +4884,110 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K39" t="n">
+        <v>7</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N39" t="n">
         <v>2.1</v>
       </c>
-      <c r="H39" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K39" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M39" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.75</v>
-      </c>
       <c r="O39" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF39" t="n">
         <v>1.87</v>
       </c>
-      <c r="P39" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AG39" t="n">
-        <v>1.57</v>
+        <v>2.35</v>
       </c>
       <c r="AH39" t="n">
-        <v>2.03</v>
+        <v>3.28</v>
       </c>
       <c r="AI39" t="n">
-        <v>2.62</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Sweden Allsvenskan</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
@@ -4999,104 +4999,104 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I40" t="n">
         <v>3.1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>13.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="M40" t="n">
-        <v>2.75</v>
+        <v>3.95</v>
       </c>
       <c r="N40" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O40" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W40" t="n">
         <v>1.57</v>
       </c>
-      <c r="P40" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q40" t="n">
+      <c r="X40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI40" t="n">
         <v>2.62</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X40" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>4.6</v>
       </c>
     </row>
     <row r="41">
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H41" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="I41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J41" t="n">
         <v>1.03</v>
@@ -5148,10 +5148,10 @@
         <v>4.58</v>
       </c>
       <c r="N41" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="O41" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P41" t="n">
         <v>1.31</v>
@@ -5175,10 +5175,10 @@
         <v>2.73</v>
       </c>
       <c r="W41" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="X41" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="Y41" t="n">
         <v>1.76</v>
@@ -5242,13 +5242,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H42" t="n">
         <v>4.5</v>
       </c>
       <c r="I42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J42" t="n">
         <v>1.02</v>
@@ -5263,10 +5263,10 @@
         <v>5.4</v>
       </c>
       <c r="N42" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O42" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="P42" t="n">
         <v>1.26</v>
@@ -5290,10 +5290,10 @@
         <v>2.96</v>
       </c>
       <c r="W42" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="X42" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Y42" t="n">
         <v>2.04</v>
@@ -5357,13 +5357,13 @@
         </is>
       </c>
       <c r="G43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H43" t="n">
         <v>3.5</v>
       </c>
-      <c r="H43" t="n">
-        <v>3.25</v>
-      </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="J43" t="n">
         <v>1.02</v>
@@ -5378,10 +5378,10 @@
         <v>3.26</v>
       </c>
       <c r="N43" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O43" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="P43" t="n">
         <v>1.4</v>
@@ -5405,10 +5405,10 @@
         <v>1.3</v>
       </c>
       <c r="W43" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X43" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Y43" t="n">
         <v>1.48</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="G44" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" t="n">
         <v>2.8</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.62</v>
       </c>
       <c r="J44" t="n">
         <v>1.12</v>
@@ -5487,13 +5487,13 @@
         <v>6.83</v>
       </c>
       <c r="L44" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="M44" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="N44" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O44" t="n">
         <v>1.47</v>
@@ -5587,13 +5587,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="I45" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="J45" t="n">
         <v>1.04</v>
@@ -5693,100 +5693,100 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Club Always Ready</t>
+          <t>Vaca Díez</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.24</v>
+        <v>1.91</v>
       </c>
       <c r="H46" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="K46" t="n">
-        <v>9.25</v>
+        <v>9.9</v>
       </c>
       <c r="L46" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="M46" t="n">
-        <v>3.3</v>
+        <v>3.56</v>
       </c>
       <c r="N46" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="O46" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="R46" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="S46" t="n">
-        <v>2.08</v>
+        <v>2.11</v>
       </c>
       <c r="T46" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="U46" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="V46" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="W46" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="X46" t="n">
-        <v>2.17</v>
+        <v>1.17</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.4</v>
+        <v>1.77</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.42</v>
+        <v>0.96</v>
       </c>
       <c r="AA46" t="n">
-        <v>3.82</v>
+        <v>2.73</v>
       </c>
       <c r="AB46" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AC46" t="n">
         <v>8</v>
       </c>
       <c r="AD46" t="n">
-        <v>1.91</v>
+        <v>2.28</v>
       </c>
       <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
         <v>1.26</v>
       </c>
-      <c r="AF46" t="n">
-        <v>1.48</v>
-      </c>
       <c r="AG46" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AH46" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="AI46" t="n">
-        <v>3.2</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="47">
@@ -5808,100 +5808,100 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Vaca Díez</t>
+          <t>Club Always Ready</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="H47" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="J47" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="K47" t="n">
-        <v>9.9</v>
+        <v>9.25</v>
       </c>
       <c r="L47" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="M47" t="n">
-        <v>3.56</v>
+        <v>3.3</v>
       </c>
       <c r="N47" t="n">
         <v>1.73</v>
       </c>
       <c r="O47" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="P47" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="R47" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S47" t="n">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="T47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V47" t="n">
         <v>1.36</v>
       </c>
-      <c r="U47" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.45</v>
-      </c>
       <c r="W47" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="X47" t="n">
-        <v>1.17</v>
+        <v>2.17</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.77</v>
+        <v>2.4</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.96</v>
+        <v>1.42</v>
       </c>
       <c r="AA47" t="n">
-        <v>2.73</v>
+        <v>3.82</v>
       </c>
       <c r="AB47" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="AC47" t="n">
         <v>8</v>
       </c>
       <c r="AD47" t="n">
-        <v>2.28</v>
+        <v>1.91</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG47" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AH47" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="AI47" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="48">
@@ -5923,22 +5923,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Víkingur Reykjavík</t>
+          <t>Keflavík</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Valur</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="H48" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="I48" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="J48" t="n">
         <v>1.02</v>
@@ -5947,76 +5947,76 @@
         <v>13</v>
       </c>
       <c r="L48" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M48" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
         <v>1.52</v>
       </c>
-      <c r="O48" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.48</v>
-      </c>
       <c r="S48" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="T48" t="n">
-        <v>1.29</v>
+        <v>2.6</v>
       </c>
       <c r="U48" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG48" t="n">
         <v>1.3</v>
       </c>
-      <c r="V48" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W48" t="n">
-        <v>3</v>
-      </c>
-      <c r="X48" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>1.31</v>
-      </c>
       <c r="AH48" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="AI48" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="49">
@@ -6038,22 +6038,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Keflavík</t>
+          <t>Víkingur Reykjavík</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Valur</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5.7</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
-        <v>4.65</v>
+        <v>3.75</v>
       </c>
       <c r="I49" t="n">
-        <v>1.32</v>
+        <v>3.9</v>
       </c>
       <c r="J49" t="n">
         <v>1.02</v>
@@ -6062,76 +6062,76 @@
         <v>13</v>
       </c>
       <c r="L49" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N49" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="O49" t="n">
-        <v>2.65</v>
+        <v>2.33</v>
       </c>
       <c r="P49" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q49" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R49" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="S49" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="T49" t="n">
-        <v>2.6</v>
+        <v>1.29</v>
       </c>
       <c r="U49" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="V49" t="n">
-        <v>1.11</v>
+        <v>1.75</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X49" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.26</v>
+        <v>1.73</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="AA49" t="n">
-        <v>2.7</v>
+        <v>3.37</v>
       </c>
       <c r="AB49" t="n">
-        <v>3.66</v>
+        <v>1.82</v>
       </c>
       <c r="AC49" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>1.37</v>
+        <v>2.28</v>
       </c>
       <c r="AE49" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AF49" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AG49" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AH49" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AI49" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="50">
@@ -6277,13 +6277,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I51" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="J51" t="n">
         <v>1.04</v>
@@ -6298,10 +6298,10 @@
         <v>3</v>
       </c>
       <c r="N51" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="O51" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="P51" t="n">
         <v>1.41</v>
@@ -6392,13 +6392,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.89</v>
+        <v>3.05</v>
       </c>
       <c r="H52" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I52" t="n">
-        <v>2.37</v>
+        <v>2.14</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>2.01</v>
+        <v>1.89</v>
       </c>
       <c r="O52" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -6737,13 +6737,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="H55" t="n">
-        <v>3.36</v>
+        <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>3.12</v>
+        <v>3.4</v>
       </c>
       <c r="J55" t="n">
         <v>1.05</v>
@@ -6758,10 +6758,10 @@
         <v>2.68</v>
       </c>
       <c r="N55" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="O55" t="n">
-        <v>1.77</v>
+        <v>1.56</v>
       </c>
       <c r="P55" t="n">
         <v>1.5</v>
@@ -6827,7 +6827,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Brazil Serie C</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
@@ -6839,110 +6839,110 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Aparecidense</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sampaio Corrêa</t>
+          <t>Altos</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.09</v>
+        <v>1.65</v>
       </c>
       <c r="H56" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I56" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="J56" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L56" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="M56" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N56" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="O56" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="P56" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="W56" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q56" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R56" t="n">
-        <v>2</v>
-      </c>
-      <c r="S56" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U56" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W56" t="n">
-        <v>1.25</v>
-      </c>
       <c r="X56" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.55</v>
+        <v>1.97</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AA56" t="n">
-        <v>3.16</v>
+        <v>3.61</v>
       </c>
       <c r="AB56" t="n">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="AC56" t="n">
-        <v>7.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD56" t="n">
-        <v>2.88</v>
+        <v>3.04</v>
       </c>
       <c r="AE56" t="n">
         <v>1.32</v>
       </c>
       <c r="AF56" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="AG56" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="AH56" t="n">
-        <v>2.35</v>
+        <v>2.71</v>
       </c>
       <c r="AI56" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Brazil Serie C</t>
+          <t>Brazil Serie D</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
@@ -6954,80 +6954,80 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Aparecidense</t>
+          <t>Águia de Marabá</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Altos</t>
+          <t>São Francisco</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.94</v>
+        <v>1.55</v>
       </c>
       <c r="H57" t="n">
-        <v>3.24</v>
+        <v>3.8</v>
       </c>
       <c r="I57" t="n">
-        <v>3.92</v>
+        <v>5.25</v>
       </c>
       <c r="J57" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K57" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L57" t="n">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="M57" t="n">
-        <v>3.25</v>
+        <v>5.2</v>
       </c>
       <c r="N57" t="n">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="O57" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="P57" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="Q57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W57" t="n">
         <v>3</v>
       </c>
-      <c r="R57" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S57" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T57" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="V57" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X57" t="n">
         <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.97</v>
+        <v>1.02</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>3.61</v>
+        <v>1.02</v>
       </c>
       <c r="AB57" t="n">
         <v>0</v>
@@ -7057,7 +7057,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Brazil Serie C</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
@@ -7069,26 +7069,26 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Floresta</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Sampaio Corrêa</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="H58" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="I58" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="J58" t="n">
         <v>1.08</v>
@@ -7097,82 +7097,82 @@
         <v>7</v>
       </c>
       <c r="L58" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N58" t="n">
-        <v>2.01</v>
+        <v>2.25</v>
       </c>
       <c r="O58" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="P58" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.75</v>
+        <v>2.37</v>
       </c>
       <c r="R58" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S58" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="T58" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="U58" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="V58" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W58" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="X58" t="n">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="Y58" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="AA58" t="n">
-        <v>2.74</v>
+        <v>3.16</v>
       </c>
       <c r="AB58" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD58" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AE58" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF58" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AG58" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH58" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AI58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Brazil Serie C</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
@@ -7184,110 +7184,110 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Floresta</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.1</v>
+        <v>2.17</v>
       </c>
       <c r="H59" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="I59" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K59" t="n">
+        <v>7</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD59" t="n">
         <v>2.45</v>
       </c>
-      <c r="J59" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K59" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L59" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P59" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R59" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S59" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T59" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U59" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V59" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W59" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X59" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>2.6</v>
-      </c>
       <c r="AE59" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="AF59" t="n">
         <v>1.68</v>
       </c>
       <c r="AG59" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="AH59" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="AI59" t="n">
-        <v>3.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Brazil Serie D</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
@@ -7299,104 +7299,104 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Águia de Marabá</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>São Francisco</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P60" t="n">
         <v>1.55</v>
       </c>
-      <c r="H60" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K60" t="n">
-        <v>17</v>
-      </c>
-      <c r="L60" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="M60" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="N60" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O60" t="n">
+      <c r="Q60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X60" t="n">
         <v>1.75</v>
       </c>
-      <c r="P60" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S60" t="n">
+      <c r="Y60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF60" t="n">
         <v>1.68</v>
       </c>
-      <c r="T60" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="U60" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V60" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W60" t="n">
-        <v>3</v>
-      </c>
-      <c r="X60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>0</v>
-      </c>
       <c r="AG60" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AH60" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AI60" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="61">
@@ -7427,13 +7427,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H61" t="n">
-        <v>4.12</v>
+        <v>3.9</v>
       </c>
       <c r="I61" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -7448,10 +7448,10 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="O61" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="H62" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="I62" t="n">
-        <v>4.65</v>
+        <v>4.1</v>
       </c>
       <c r="J62" t="n">
         <v>1.04</v>
@@ -7563,10 +7563,10 @@
         <v>4</v>
       </c>
       <c r="N62" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="O62" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="P62" t="n">
         <v>1.3</v>
@@ -7632,7 +7632,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Colombia Categoria Primera B</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
@@ -7644,110 +7644,110 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Vélez Sarsfield</t>
+          <t>Cortuluá</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Valledupar</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.33</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I63" t="n">
-        <v>1.91</v>
+        <v>4</v>
       </c>
       <c r="J63" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="K63" t="n">
-        <v>7.2</v>
+        <v>8.25</v>
       </c>
       <c r="L63" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M63" t="n">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
       <c r="N63" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="O63" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="P63" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.58</v>
+        <v>2.73</v>
       </c>
       <c r="R63" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="S63" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="T63" t="n">
-        <v>1.91</v>
+        <v>1.19</v>
       </c>
       <c r="U63" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V63" t="n">
-        <v>1.22</v>
+        <v>1.85</v>
       </c>
       <c r="W63" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="X63" t="n">
-        <v>2.11</v>
+        <v>0.78</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Z63" t="n">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="AA63" t="n">
-        <v>2.97</v>
+        <v>3.01</v>
       </c>
       <c r="AB63" t="n">
-        <v>3.05</v>
+        <v>1.55</v>
       </c>
       <c r="AC63" t="n">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="AD63" t="n">
-        <v>1.48</v>
+        <v>2.83</v>
       </c>
       <c r="AE63" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AF63" t="n">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="AG63" t="n">
-        <v>2.01</v>
+        <v>2.21</v>
       </c>
       <c r="AH63" t="n">
-        <v>2.5</v>
+        <v>2.93</v>
       </c>
       <c r="AI63" t="n">
-        <v>3.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera B</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
@@ -7759,104 +7759,104 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Cortuluá</t>
+          <t>Vélez Sarsfield</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Valledupar</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.94</v>
+        <v>4.33</v>
       </c>
       <c r="H64" t="n">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="I64" t="n">
-        <v>3.94</v>
+        <v>1.91</v>
       </c>
       <c r="J64" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="K64" t="n">
-        <v>8.25</v>
+        <v>7.2</v>
       </c>
       <c r="L64" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M64" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AB64" t="n">
         <v>3.05</v>
       </c>
-      <c r="N64" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="P64" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="R64" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S64" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="U64" t="n">
+      <c r="AC64" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AE64" t="n">
         <v>1.29</v>
       </c>
-      <c r="V64" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W64" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X64" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>1.38</v>
-      </c>
       <c r="AF64" t="n">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="AG64" t="n">
-        <v>2.21</v>
+        <v>2.01</v>
       </c>
       <c r="AH64" t="n">
-        <v>2.93</v>
+        <v>2.5</v>
       </c>
       <c r="AI64" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
     </row>
   </sheetData>
